--- a/GradeDistributionsDB/Spring2015/Output/Spring2015 MS.xlsx
+++ b/GradeDistributionsDB/Spring2015/Output/Spring2015 MS.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="209">
   <si>
     <t>Course</t>
   </si>
@@ -67,13 +67,16 @@
     <t>KOSTER B</t>
   </si>
   <si>
-    <t>74.00%</t>
-  </si>
-  <si>
-    <t>22.00%</t>
-  </si>
-  <si>
-    <t>2.00%</t>
+    <t>75.31%</t>
+  </si>
+  <si>
+    <t>20.99%</t>
+  </si>
+  <si>
+    <t>2.47%</t>
+  </si>
+  <si>
+    <t>1.23%</t>
   </si>
   <si>
     <t>AERS-304</t>
@@ -88,15 +91,6 @@
     <t>AERS-404</t>
   </si>
   <si>
-    <t>MILITARY S</t>
-  </si>
-  <si>
-    <t>TOTAL S</t>
-  </si>
-  <si>
-    <t>TEXAS A</t>
-  </si>
-  <si>
     <t>MCCLANAHAN R</t>
   </si>
   <si>
@@ -106,16 +100,19 @@
     <t>FRENCH B</t>
   </si>
   <si>
-    <t>78.13%</t>
-  </si>
-  <si>
-    <t>13.28%</t>
-  </si>
-  <si>
-    <t>7.03%</t>
-  </si>
-  <si>
-    <t>0.78%</t>
+    <t>78.85%</t>
+  </si>
+  <si>
+    <t>14.54%</t>
+  </si>
+  <si>
+    <t>4.41%</t>
+  </si>
+  <si>
+    <t>1.32%</t>
+  </si>
+  <si>
+    <t>0.88%</t>
   </si>
   <si>
     <t>MLSC-222</t>
@@ -124,6 +121,12 @@
     <t>PETERSON D</t>
   </si>
   <si>
+    <t>98.36%</t>
+  </si>
+  <si>
+    <t>0.82%</t>
+  </si>
+  <si>
     <t>MLSC-322</t>
   </si>
   <si>
@@ -166,21 +169,15 @@
     <t>MLSC-485</t>
   </si>
   <si>
+    <t>RUSSO W</t>
+  </si>
+  <si>
     <t>95.83%</t>
   </si>
   <si>
     <t>4.17%</t>
   </si>
   <si>
-    <t>RUSSO W</t>
-  </si>
-  <si>
-    <t>NAVAL S</t>
-  </si>
-  <si>
-    <t>DEPARTMENT T</t>
-  </si>
-  <si>
     <t>NVSC-205</t>
   </si>
   <si>
@@ -196,6 +193,18 @@
     <t>15.56%</t>
   </si>
   <si>
+    <t>GARCIA O</t>
+  </si>
+  <si>
+    <t>54.55%</t>
+  </si>
+  <si>
+    <t>27.27%</t>
+  </si>
+  <si>
+    <t>9.09%</t>
+  </si>
+  <si>
     <t>LIEBSCH J</t>
   </si>
   <si>
@@ -211,18 +220,6 @@
     <t>4.65%</t>
   </si>
   <si>
-    <t>GARCIA O</t>
-  </si>
-  <si>
-    <t>54.55%</t>
-  </si>
-  <si>
-    <t>27.27%</t>
-  </si>
-  <si>
-    <t>9.09%</t>
-  </si>
-  <si>
     <t>MURTY J</t>
   </si>
   <si>
@@ -235,6 +232,51 @@
     <t>6.10%</t>
   </si>
   <si>
+    <t>NVSC-301</t>
+  </si>
+  <si>
+    <t>SCHMIDT M</t>
+  </si>
+  <si>
+    <t>66.67%</t>
+  </si>
+  <si>
+    <t>33.33%</t>
+  </si>
+  <si>
+    <t>HAMEL A</t>
+  </si>
+  <si>
+    <t>52.00%</t>
+  </si>
+  <si>
+    <t>8.00%</t>
+  </si>
+  <si>
+    <t>NVSC-303</t>
+  </si>
+  <si>
+    <t>PENA M</t>
+  </si>
+  <si>
+    <t>59.09%</t>
+  </si>
+  <si>
+    <t>4.55%</t>
+  </si>
+  <si>
+    <t>MORGAN J</t>
+  </si>
+  <si>
+    <t>25.93%</t>
+  </si>
+  <si>
+    <t>62.96%</t>
+  </si>
+  <si>
+    <t>11.11%</t>
+  </si>
+  <si>
     <t>NVSC-401</t>
   </si>
   <si>
@@ -262,15 +304,15 @@
     <t>NVSC-485</t>
   </si>
   <si>
+    <t>GENETTI A</t>
+  </si>
+  <si>
     <t>65.00%</t>
   </si>
   <si>
     <t>35.00%</t>
   </si>
   <si>
-    <t>GENETTI A</t>
-  </si>
-  <si>
     <t>SOMS-111</t>
   </si>
   <si>
@@ -280,181 +322,211 @@
     <t>88.89%</t>
   </si>
   <si>
-    <t>11.11%</t>
-  </si>
-  <si>
     <t>SOMS-180</t>
   </si>
   <si>
     <t>MATTE J</t>
   </si>
   <si>
+    <t>STARNES G</t>
+  </si>
+  <si>
+    <t>95.00%</t>
+  </si>
+  <si>
+    <t>3.33%</t>
+  </si>
+  <si>
+    <t>1.67%</t>
+  </si>
+  <si>
+    <t>BYRNE W</t>
+  </si>
+  <si>
+    <t>93.65%</t>
+  </si>
+  <si>
+    <t>6.35%</t>
+  </si>
+  <si>
     <t>WHITAKER B</t>
   </si>
   <si>
-    <t>90.32%</t>
-  </si>
-  <si>
-    <t>6.45%</t>
+    <t>86.67%</t>
+  </si>
+  <si>
+    <t>10.00%</t>
+  </si>
+  <si>
+    <t>DULKE M</t>
+  </si>
+  <si>
+    <t>64.38%</t>
+  </si>
+  <si>
+    <t>21.92%</t>
+  </si>
+  <si>
+    <t>6.85%</t>
+  </si>
+  <si>
+    <t>2.74%</t>
+  </si>
+  <si>
+    <t>4.11%</t>
+  </si>
+  <si>
+    <t>PARKER C</t>
+  </si>
+  <si>
+    <t>HAWES S</t>
+  </si>
+  <si>
+    <t>96.55%</t>
+  </si>
+  <si>
+    <t>3.45%</t>
+  </si>
+  <si>
+    <t>NORRIS D</t>
+  </si>
+  <si>
+    <t>92.06%</t>
+  </si>
+  <si>
+    <t>6.50%</t>
+  </si>
+  <si>
+    <t>1.08%</t>
+  </si>
+  <si>
+    <t>0.36%</t>
+  </si>
+  <si>
+    <t>SOMS-280</t>
+  </si>
+  <si>
+    <t>HASSMAN D</t>
+  </si>
+  <si>
+    <t>64.08%</t>
+  </si>
+  <si>
+    <t>26.76%</t>
+  </si>
+  <si>
+    <t>7.04%</t>
+  </si>
+  <si>
+    <t>1.41%</t>
+  </si>
+  <si>
+    <t>0.70%</t>
+  </si>
+  <si>
+    <t>BROWN T</t>
+  </si>
+  <si>
+    <t>86.96%</t>
+  </si>
+  <si>
+    <t>8.70%</t>
+  </si>
+  <si>
+    <t>4.35%</t>
+  </si>
+  <si>
+    <t>FELTS T</t>
+  </si>
+  <si>
+    <t>57.38%</t>
+  </si>
+  <si>
+    <t>37.97%</t>
+  </si>
+  <si>
+    <t>3.38%</t>
+  </si>
+  <si>
+    <t>0.84%</t>
+  </si>
+  <si>
+    <t>0.42%</t>
+  </si>
+  <si>
+    <t>GARDNER J</t>
+  </si>
+  <si>
+    <t>HAUFFE F</t>
+  </si>
+  <si>
+    <t>83.16%</t>
+  </si>
+  <si>
+    <t>11.58%</t>
+  </si>
+  <si>
+    <t>5.26%</t>
+  </si>
+  <si>
+    <t>SOMS-381</t>
+  </si>
+  <si>
+    <t>SIMPSON L</t>
+  </si>
+  <si>
+    <t>36.36%</t>
+  </si>
+  <si>
+    <t>45.45%</t>
+  </si>
+  <si>
+    <t>PRESTON T</t>
+  </si>
+  <si>
+    <t>72.73%</t>
+  </si>
+  <si>
+    <t>KALLINA S</t>
+  </si>
+  <si>
+    <t>22.73%</t>
+  </si>
+  <si>
+    <t>SCOGGINS J</t>
+  </si>
+  <si>
+    <t>78.26%</t>
+  </si>
+  <si>
+    <t>13.04%</t>
+  </si>
+  <si>
+    <t>SHEHANE M</t>
+  </si>
+  <si>
+    <t>78.95%</t>
+  </si>
+  <si>
+    <t>10.53%</t>
+  </si>
+  <si>
+    <t>WENTLING D</t>
+  </si>
+  <si>
+    <t>83.87%</t>
+  </si>
+  <si>
+    <t>12.90%</t>
   </si>
   <si>
     <t>3.23%</t>
   </si>
   <si>
-    <t>STARNES G</t>
-  </si>
-  <si>
-    <t>96.67%</t>
-  </si>
-  <si>
-    <t>3.33%</t>
-  </si>
-  <si>
-    <t>BYRNE W</t>
-  </si>
-  <si>
-    <t>90.91%</t>
-  </si>
-  <si>
-    <t>DULKE M</t>
-  </si>
-  <si>
-    <t>64.38%</t>
-  </si>
-  <si>
-    <t>21.92%</t>
-  </si>
-  <si>
-    <t>6.85%</t>
-  </si>
-  <si>
-    <t>2.74%</t>
-  </si>
-  <si>
-    <t>4.11%</t>
-  </si>
-  <si>
-    <t>PARKER C</t>
-  </si>
-  <si>
-    <t>HAWES S</t>
-  </si>
-  <si>
-    <t>96.55%</t>
-  </si>
-  <si>
-    <t>3.45%</t>
-  </si>
-  <si>
-    <t>NORRIS D</t>
-  </si>
-  <si>
-    <t>93.26%</t>
-  </si>
-  <si>
-    <t>5.70%</t>
-  </si>
-  <si>
-    <t>1.04%</t>
-  </si>
-  <si>
-    <t>SOMS-280</t>
-  </si>
-  <si>
-    <t>HASSMAN D</t>
-  </si>
-  <si>
-    <t>64.08%</t>
-  </si>
-  <si>
-    <t>26.76%</t>
-  </si>
-  <si>
-    <t>7.04%</t>
-  </si>
-  <si>
-    <t>1.41%</t>
-  </si>
-  <si>
-    <t>0.70%</t>
-  </si>
-  <si>
-    <t>BROWN T</t>
-  </si>
-  <si>
-    <t>83.33%</t>
-  </si>
-  <si>
-    <t>5.56%</t>
-  </si>
-  <si>
-    <t>FELTS T</t>
-  </si>
-  <si>
-    <t>53.20%</t>
-  </si>
-  <si>
-    <t>42.36%</t>
-  </si>
-  <si>
-    <t>2.96%</t>
-  </si>
-  <si>
-    <t>0.99%</t>
-  </si>
-  <si>
-    <t>0.49%</t>
-  </si>
-  <si>
-    <t>GARDNER J</t>
-  </si>
-  <si>
-    <t>HAUFFE F</t>
-  </si>
-  <si>
-    <t>83.16%</t>
-  </si>
-  <si>
-    <t>11.58%</t>
-  </si>
-  <si>
-    <t>5.26%</t>
-  </si>
-  <si>
-    <t>SOMS-381</t>
-  </si>
-  <si>
-    <t>KALLINA S</t>
-  </si>
-  <si>
-    <t>72.73%</t>
-  </si>
-  <si>
-    <t>22.73%</t>
-  </si>
-  <si>
-    <t>4.55%</t>
-  </si>
-  <si>
-    <t>SCOGGINS J</t>
-  </si>
-  <si>
-    <t>78.26%</t>
-  </si>
-  <si>
-    <t>8.70%</t>
-  </si>
-  <si>
-    <t>13.04%</t>
-  </si>
-  <si>
-    <t>WENTLING D</t>
-  </si>
-  <si>
-    <t>83.87%</t>
-  </si>
-  <si>
-    <t>12.90%</t>
+    <t>DAWSON S</t>
+  </si>
+  <si>
+    <t>13.33%</t>
   </si>
   <si>
     <t>FRYSINGER V</t>
@@ -469,21 +541,9 @@
     <t>2.70%</t>
   </si>
   <si>
-    <t>DAWSON S</t>
-  </si>
-  <si>
-    <t>86.67%</t>
-  </si>
-  <si>
-    <t>13.33%</t>
-  </si>
-  <si>
     <t>MCCLURE M</t>
   </si>
   <si>
-    <t>59.09%</t>
-  </si>
-  <si>
     <t>POWERS T</t>
   </si>
   <si>
@@ -493,9 +553,6 @@
     <t>3.77%</t>
   </si>
   <si>
-    <t>PRESTON T</t>
-  </si>
-  <si>
     <t>IVEY C</t>
   </si>
   <si>
@@ -520,6 +577,15 @@
     <t>4.76%</t>
   </si>
   <si>
+    <t>STRUMINGER R</t>
+  </si>
+  <si>
+    <t>55.56%</t>
+  </si>
+  <si>
+    <t>89.47%</t>
+  </si>
+  <si>
     <t>RANDOLPH D</t>
   </si>
   <si>
@@ -529,12 +595,6 @@
     <t>16.67%</t>
   </si>
   <si>
-    <t>STRUMINGER R</t>
-  </si>
-  <si>
-    <t>55.56%</t>
-  </si>
-  <si>
     <t>SULLINS D</t>
   </si>
   <si>
@@ -547,10 +607,10 @@
     <t>MOONEY K</t>
   </si>
   <si>
-    <t>81.25%</t>
-  </si>
-  <si>
-    <t>6.25%</t>
+    <t>11.43%</t>
+  </si>
+  <si>
+    <t>2.86%</t>
   </si>
   <si>
     <t>ARCAK C</t>
@@ -577,10 +637,10 @@
     <t>SIMPSON M</t>
   </si>
   <si>
-    <t>92.31%</t>
-  </si>
-  <si>
-    <t>7.69%</t>
+    <t>96.63%</t>
+  </si>
+  <si>
+    <t>3.37%</t>
   </si>
 </sst>
 </file>
@@ -917,7 +977,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H104"/>
+  <dimension ref="A1:H98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -989,7 +1049,7 @@
         <v>16</v>
       </c>
       <c r="C6" t="n">
-        <v>3.6913</v>
+        <v>3.742</v>
       </c>
       <c r="D6" t="s">
         <v>17</v>
@@ -1001,7 +1061,7 @@
         <v>19</v>
       </c>
       <c r="G6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H6" t="s">
         <v>13</v>
@@ -1009,18 +1069,18 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="B9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C9" t="n">
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E9" t="s">
         <v>13</v>
@@ -1037,18 +1097,18 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="n">
         <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E12" t="s">
         <v>13</v>
@@ -1063,50 +1123,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
-      <c r="B13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" t="n">
-        <v>4</v>
-      </c>
-      <c r="D13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13" t="s">
-        <v>13</v>
-      </c>
-    </row>
     <row r="14" spans="1:8">
-      <c r="B14" t="s">
+      <c r="A14" t="s">
         <v>26</v>
-      </c>
-      <c r="C14" t="n">
-        <v>4</v>
-      </c>
-      <c r="D14" t="s">
-        <v>22</v>
-      </c>
-      <c r="E14" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14" t="s">
-        <v>13</v>
-      </c>
-      <c r="G14" t="s">
-        <v>13</v>
-      </c>
-      <c r="H14" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1114,156 +1133,156 @@
         <v>27</v>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>3.6882</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E15" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="F15" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="G15" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="H15" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="B18" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C18" t="n">
-        <v>3.6654</v>
+        <v>3.961</v>
       </c>
       <c r="D18" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E18" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F18" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="G18" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="H18" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="B21" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>3.2268</v>
       </c>
       <c r="D21" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="E21" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="F21" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="G21" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="H21" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="B24" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="C24" t="n">
-        <v>3.2268</v>
+        <v>3.6013</v>
       </c>
       <c r="D24" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="E24" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="F24" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="G24" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="H24" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="B27" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="C27" t="n">
-        <v>3.6013</v>
+        <v>3.958</v>
       </c>
       <c r="D27" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="E27" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="F27" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="G27" t="s">
         <v>13</v>
       </c>
       <c r="H27" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="B30" t="s">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="C30" t="n">
-        <v>3.958</v>
+        <v>3.244</v>
       </c>
       <c r="D30" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="E30" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="F30" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="G30" t="s">
         <v>13</v>
@@ -1274,45 +1293,45 @@
     </row>
     <row r="31" spans="1:8">
       <c r="B31" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="C31" t="n">
-        <v>3.958</v>
+        <v>3.182</v>
       </c>
       <c r="D31" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="E31" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="F31" t="s">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="G31" t="s">
         <v>13</v>
       </c>
       <c r="H31" t="s">
-        <v>13</v>
+        <v>62</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="B32" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C32" t="n">
-        <v>3.958</v>
+        <v>3.255</v>
       </c>
       <c r="D32" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="E32" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="F32" t="s">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="G32" t="s">
-        <v>13</v>
+        <v>67</v>
       </c>
       <c r="H32" t="s">
         <v>13</v>
@@ -1320,19 +1339,19 @@
     </row>
     <row r="33" spans="1:8">
       <c r="B33" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="C33" t="n">
-        <v>3.958</v>
+        <v>3.5715</v>
       </c>
       <c r="D33" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="E33" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="F33" t="s">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="G33" t="s">
         <v>13</v>
@@ -1341,141 +1360,100 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
-      <c r="B34" t="s">
-        <v>25</v>
-      </c>
-      <c r="C34" t="n">
-        <v>3.958</v>
-      </c>
-      <c r="D34" t="s">
-        <v>50</v>
-      </c>
-      <c r="E34" t="s">
-        <v>51</v>
-      </c>
-      <c r="F34" t="s">
-        <v>13</v>
-      </c>
-      <c r="G34" t="s">
-        <v>13</v>
-      </c>
-      <c r="H34" t="s">
-        <v>13</v>
-      </c>
-    </row>
     <row r="35" spans="1:8">
-      <c r="B35" t="s">
-        <v>26</v>
-      </c>
-      <c r="C35" t="n">
-        <v>3.958</v>
-      </c>
-      <c r="D35" t="s">
-        <v>50</v>
-      </c>
-      <c r="E35" t="s">
-        <v>51</v>
-      </c>
-      <c r="F35" t="s">
-        <v>13</v>
-      </c>
-      <c r="G35" t="s">
-        <v>13</v>
-      </c>
-      <c r="H35" t="s">
+      <c r="A35" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="B36" t="s">
+        <v>73</v>
+      </c>
+      <c r="C36" t="n">
+        <v>3.667</v>
+      </c>
+      <c r="D36" t="s">
+        <v>74</v>
+      </c>
+      <c r="E36" t="s">
+        <v>75</v>
+      </c>
+      <c r="F36" t="s">
+        <v>13</v>
+      </c>
+      <c r="G36" t="s">
+        <v>13</v>
+      </c>
+      <c r="H36" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
-      <c r="B38" t="s">
+      <c r="B37" t="s">
+        <v>76</v>
+      </c>
+      <c r="C37" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="D37" t="s">
+        <v>77</v>
+      </c>
+      <c r="E37" t="s">
         <v>56</v>
       </c>
-      <c r="C38" t="n">
-        <v>3.244</v>
-      </c>
-      <c r="D38" t="s">
-        <v>57</v>
-      </c>
-      <c r="E38" t="s">
-        <v>58</v>
-      </c>
-      <c r="F38" t="s">
-        <v>59</v>
-      </c>
-      <c r="G38" t="s">
-        <v>13</v>
-      </c>
-      <c r="H38" t="s">
+      <c r="F37" t="s">
+        <v>78</v>
+      </c>
+      <c r="G37" t="s">
+        <v>13</v>
+      </c>
+      <c r="H37" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="39" spans="1:8">
-      <c r="B39" t="s">
-        <v>60</v>
-      </c>
-      <c r="C39" t="n">
-        <v>3.255</v>
-      </c>
-      <c r="D39" t="s">
-        <v>61</v>
-      </c>
-      <c r="E39" t="s">
-        <v>62</v>
-      </c>
-      <c r="F39" t="s">
-        <v>63</v>
-      </c>
-      <c r="G39" t="s">
-        <v>64</v>
-      </c>
-      <c r="H39" t="s">
-        <v>13</v>
+      <c r="A39" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="40" spans="1:8">
       <c r="B40" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="C40" t="n">
-        <v>3.182</v>
+        <v>3.046</v>
       </c>
       <c r="D40" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="E40" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="F40" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="G40" t="s">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="H40" t="s">
-        <v>68</v>
+        <v>13</v>
       </c>
     </row>
     <row r="41" spans="1:8">
       <c r="B41" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="C41" t="n">
-        <v>3.5715</v>
+        <v>3.148</v>
       </c>
       <c r="D41" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="E41" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="F41" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="G41" t="s">
         <v>13</v>
@@ -1486,21 +1464,21 @@
     </row>
     <row r="43" spans="1:8">
       <c r="A43" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
     </row>
     <row r="44" spans="1:8">
       <c r="B44" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="C44" t="n">
         <v>3.6555</v>
       </c>
       <c r="D44" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="E44" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="F44" t="s">
         <v>13</v>
@@ -1514,21 +1492,21 @@
     </row>
     <row r="46" spans="1:8">
       <c r="A46" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
     </row>
     <row r="47" spans="1:8">
       <c r="B47" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="C47" t="n">
         <v>3.5415</v>
       </c>
       <c r="D47" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="E47" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="F47" t="s">
         <v>13</v>
@@ -1542,21 +1520,21 @@
     </row>
     <row r="49" spans="1:8">
       <c r="A49" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
     </row>
     <row r="50" spans="1:8">
       <c r="B50" t="s">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="C50" t="n">
-        <v>3.65</v>
+        <v>4</v>
       </c>
       <c r="D50" t="s">
-        <v>82</v>
+        <v>23</v>
       </c>
       <c r="E50" t="s">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="F50" t="s">
         <v>13</v>
@@ -1570,16 +1548,16 @@
     </row>
     <row r="51" spans="1:8">
       <c r="B51" t="s">
-        <v>26</v>
+        <v>96</v>
       </c>
       <c r="C51" t="n">
         <v>3.65</v>
       </c>
       <c r="D51" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="E51" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="F51" t="s">
         <v>13</v>
@@ -1591,172 +1569,172 @@
         <v>13</v>
       </c>
     </row>
-    <row r="52" spans="1:8">
-      <c r="B52" t="s">
-        <v>53</v>
-      </c>
-      <c r="C52" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="D52" t="s">
-        <v>82</v>
-      </c>
-      <c r="E52" t="s">
-        <v>83</v>
-      </c>
-      <c r="F52" t="s">
-        <v>13</v>
-      </c>
-      <c r="G52" t="s">
-        <v>13</v>
-      </c>
-      <c r="H52" t="s">
-        <v>13</v>
-      </c>
-    </row>
     <row r="53" spans="1:8">
-      <c r="B53" t="s">
-        <v>65</v>
-      </c>
-      <c r="C53" t="n">
-        <v>4</v>
-      </c>
-      <c r="D53" t="s">
-        <v>22</v>
-      </c>
-      <c r="E53" t="s">
-        <v>13</v>
-      </c>
-      <c r="F53" t="s">
-        <v>13</v>
-      </c>
-      <c r="G53" t="s">
-        <v>13</v>
-      </c>
-      <c r="H53" t="s">
-        <v>13</v>
+      <c r="A53" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="54" spans="1:8">
       <c r="B54" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="C54" t="n">
-        <v>3.65</v>
+        <v>3.667</v>
       </c>
       <c r="D54" t="s">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="E54" t="s">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="F54" t="s">
         <v>13</v>
       </c>
       <c r="G54" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="H54" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="55" spans="1:8">
-      <c r="B55" t="s">
-        <v>24</v>
-      </c>
-      <c r="C55" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="D55" t="s">
-        <v>82</v>
-      </c>
-      <c r="E55" t="s">
-        <v>83</v>
-      </c>
-      <c r="F55" t="s">
-        <v>13</v>
-      </c>
-      <c r="G55" t="s">
-        <v>13</v>
-      </c>
-      <c r="H55" t="s">
-        <v>13</v>
+    <row r="56" spans="1:8">
+      <c r="A56" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="57" spans="1:8">
-      <c r="A57" t="s">
-        <v>85</v>
+      <c r="B57" t="s">
+        <v>103</v>
+      </c>
+      <c r="C57" t="n">
+        <v>4</v>
+      </c>
+      <c r="D57" t="s">
+        <v>23</v>
+      </c>
+      <c r="E57" t="s">
+        <v>13</v>
+      </c>
+      <c r="F57" t="s">
+        <v>13</v>
+      </c>
+      <c r="G57" t="s">
+        <v>13</v>
+      </c>
+      <c r="H57" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="58" spans="1:8">
       <c r="B58" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="C58" t="n">
-        <v>3.667</v>
+        <v>3.9335</v>
       </c>
       <c r="D58" t="s">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="E58" t="s">
-        <v>13</v>
+        <v>106</v>
       </c>
       <c r="F58" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="G58" t="s">
-        <v>88</v>
+        <v>13</v>
       </c>
       <c r="H58" t="s">
         <v>13</v>
       </c>
     </row>
+    <row r="59" spans="1:8">
+      <c r="B59" t="s">
+        <v>108</v>
+      </c>
+      <c r="C59" t="n">
+        <v>3.938</v>
+      </c>
+      <c r="D59" t="s">
+        <v>109</v>
+      </c>
+      <c r="E59" t="s">
+        <v>110</v>
+      </c>
+      <c r="F59" t="s">
+        <v>13</v>
+      </c>
+      <c r="G59" t="s">
+        <v>13</v>
+      </c>
+      <c r="H59" t="s">
+        <v>13</v>
+      </c>
+    </row>
     <row r="60" spans="1:8">
-      <c r="A60" t="s">
-        <v>89</v>
+      <c r="B60" t="s">
+        <v>111</v>
+      </c>
+      <c r="C60" t="n">
+        <v>3.799</v>
+      </c>
+      <c r="D60" t="s">
+        <v>112</v>
+      </c>
+      <c r="E60" t="s">
+        <v>113</v>
+      </c>
+      <c r="F60" t="s">
+        <v>13</v>
+      </c>
+      <c r="G60" t="s">
+        <v>106</v>
+      </c>
+      <c r="H60" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="61" spans="1:8">
       <c r="B61" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>3.4237</v>
       </c>
       <c r="D61" t="s">
-        <v>22</v>
+        <v>115</v>
       </c>
       <c r="E61" t="s">
-        <v>13</v>
+        <v>116</v>
       </c>
       <c r="F61" t="s">
-        <v>13</v>
+        <v>117</v>
       </c>
       <c r="G61" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="H61" t="s">
-        <v>13</v>
+        <v>119</v>
       </c>
     </row>
     <row r="62" spans="1:8">
       <c r="B62" t="s">
-        <v>91</v>
+        <v>120</v>
       </c>
       <c r="C62" t="n">
-        <v>3.839</v>
+        <v>4</v>
       </c>
       <c r="D62" t="s">
-        <v>92</v>
+        <v>23</v>
       </c>
       <c r="E62" t="s">
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="F62" t="s">
         <v>13</v>
       </c>
       <c r="G62" t="s">
-        <v>94</v>
+        <v>13</v>
       </c>
       <c r="H62" t="s">
         <v>13</v>
@@ -1764,16 +1742,16 @@
     </row>
     <row r="63" spans="1:8">
       <c r="B63" t="s">
-        <v>95</v>
+        <v>121</v>
       </c>
       <c r="C63" t="n">
-        <v>3.967</v>
+        <v>3.862</v>
       </c>
       <c r="D63" t="s">
-        <v>96</v>
+        <v>122</v>
       </c>
       <c r="E63" t="s">
-        <v>97</v>
+        <v>13</v>
       </c>
       <c r="F63" t="s">
         <v>13</v>
@@ -1782,116 +1760,75 @@
         <v>13</v>
       </c>
       <c r="H63" t="s">
-        <v>13</v>
+        <v>123</v>
       </c>
     </row>
     <row r="64" spans="1:8">
       <c r="B64" t="s">
-        <v>98</v>
+        <v>124</v>
       </c>
       <c r="C64" t="n">
-        <v>3.909</v>
+        <v>3.8996</v>
       </c>
       <c r="D64" t="s">
-        <v>99</v>
+        <v>125</v>
       </c>
       <c r="E64" t="s">
-        <v>68</v>
+        <v>126</v>
       </c>
       <c r="F64" t="s">
-        <v>13</v>
+        <v>127</v>
       </c>
       <c r="G64" t="s">
         <v>13</v>
       </c>
       <c r="H64" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
-      <c r="B65" t="s">
-        <v>100</v>
-      </c>
-      <c r="C65" t="n">
-        <v>3.4237</v>
-      </c>
-      <c r="D65" t="s">
-        <v>101</v>
-      </c>
-      <c r="E65" t="s">
-        <v>102</v>
-      </c>
-      <c r="F65" t="s">
-        <v>103</v>
-      </c>
-      <c r="G65" t="s">
-        <v>104</v>
-      </c>
-      <c r="H65" t="s">
-        <v>105</v>
+        <v>128</v>
       </c>
     </row>
     <row r="66" spans="1:8">
-      <c r="B66" t="s">
-        <v>106</v>
-      </c>
-      <c r="C66" t="n">
-        <v>4</v>
-      </c>
-      <c r="D66" t="s">
-        <v>22</v>
-      </c>
-      <c r="E66" t="s">
-        <v>13</v>
-      </c>
-      <c r="F66" t="s">
-        <v>13</v>
-      </c>
-      <c r="G66" t="s">
-        <v>13</v>
-      </c>
-      <c r="H66" t="s">
-        <v>13</v>
+      <c r="A66" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="67" spans="1:8">
       <c r="B67" t="s">
-        <v>107</v>
+        <v>130</v>
       </c>
       <c r="C67" t="n">
-        <v>3.862</v>
+        <v>3.499</v>
       </c>
       <c r="D67" t="s">
-        <v>108</v>
+        <v>131</v>
       </c>
       <c r="E67" t="s">
-        <v>13</v>
+        <v>132</v>
       </c>
       <c r="F67" t="s">
-        <v>13</v>
+        <v>133</v>
       </c>
       <c r="G67" t="s">
-        <v>13</v>
+        <v>134</v>
       </c>
       <c r="H67" t="s">
-        <v>109</v>
+        <v>135</v>
       </c>
     </row>
     <row r="68" spans="1:8">
       <c r="B68" t="s">
-        <v>110</v>
+        <v>136</v>
       </c>
       <c r="C68" t="n">
-        <v>3.9246</v>
+        <v>3.8285</v>
       </c>
       <c r="D68" t="s">
-        <v>111</v>
+        <v>137</v>
       </c>
       <c r="E68" t="s">
-        <v>112</v>
+        <v>138</v>
       </c>
       <c r="F68" t="s">
-        <v>113</v>
+        <v>139</v>
       </c>
       <c r="G68" t="s">
         <v>13</v>
@@ -1900,118 +1837,118 @@
         <v>13</v>
       </c>
     </row>
+    <row r="69" spans="1:8">
+      <c r="B69" t="s">
+        <v>140</v>
+      </c>
+      <c r="C69" t="n">
+        <v>3.5046</v>
+      </c>
+      <c r="D69" t="s">
+        <v>141</v>
+      </c>
+      <c r="E69" t="s">
+        <v>142</v>
+      </c>
+      <c r="F69" t="s">
+        <v>143</v>
+      </c>
+      <c r="G69" t="s">
+        <v>144</v>
+      </c>
+      <c r="H69" t="s">
+        <v>145</v>
+      </c>
+    </row>
     <row r="70" spans="1:8">
-      <c r="A70" t="s">
-        <v>114</v>
+      <c r="B70" t="s">
+        <v>146</v>
+      </c>
+      <c r="C70" t="n">
+        <v>4</v>
+      </c>
+      <c r="D70" t="s">
+        <v>23</v>
+      </c>
+      <c r="E70" t="s">
+        <v>13</v>
+      </c>
+      <c r="F70" t="s">
+        <v>13</v>
+      </c>
+      <c r="G70" t="s">
+        <v>13</v>
+      </c>
+      <c r="H70" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="71" spans="1:8">
       <c r="B71" t="s">
-        <v>115</v>
+        <v>147</v>
       </c>
       <c r="C71" t="n">
-        <v>3.499</v>
+        <v>3.7873</v>
       </c>
       <c r="D71" t="s">
-        <v>116</v>
+        <v>148</v>
       </c>
       <c r="E71" t="s">
-        <v>117</v>
+        <v>149</v>
       </c>
       <c r="F71" t="s">
-        <v>118</v>
+        <v>150</v>
       </c>
       <c r="G71" t="s">
-        <v>119</v>
+        <v>13</v>
       </c>
       <c r="H71" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
-      <c r="B72" t="s">
-        <v>121</v>
-      </c>
-      <c r="C72" t="n">
-        <v>3.778</v>
-      </c>
-      <c r="D72" t="s">
-        <v>122</v>
-      </c>
-      <c r="E72" t="s">
-        <v>88</v>
-      </c>
-      <c r="F72" t="s">
-        <v>123</v>
-      </c>
-      <c r="G72" t="s">
-        <v>13</v>
-      </c>
-      <c r="H72" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="73" spans="1:8">
-      <c r="B73" t="s">
-        <v>124</v>
-      </c>
-      <c r="C73" t="n">
-        <v>3.4612</v>
-      </c>
-      <c r="D73" t="s">
-        <v>125</v>
-      </c>
-      <c r="E73" t="s">
-        <v>126</v>
-      </c>
-      <c r="F73" t="s">
-        <v>127</v>
-      </c>
-      <c r="G73" t="s">
-        <v>128</v>
-      </c>
-      <c r="H73" t="s">
-        <v>129</v>
+      <c r="A73" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="74" spans="1:8">
       <c r="B74" t="s">
-        <v>130</v>
+        <v>152</v>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D74" t="s">
-        <v>22</v>
+        <v>153</v>
       </c>
       <c r="E74" t="s">
-        <v>13</v>
+        <v>154</v>
       </c>
       <c r="F74" t="s">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="G74" t="s">
         <v>13</v>
       </c>
       <c r="H74" t="s">
-        <v>13</v>
+        <v>62</v>
       </c>
     </row>
     <row r="75" spans="1:8">
       <c r="B75" t="s">
-        <v>131</v>
+        <v>155</v>
       </c>
       <c r="C75" t="n">
-        <v>3.7873</v>
+        <v>3.727</v>
       </c>
       <c r="D75" t="s">
-        <v>132</v>
+        <v>156</v>
       </c>
       <c r="E75" t="s">
-        <v>133</v>
+        <v>61</v>
       </c>
       <c r="F75" t="s">
-        <v>134</v>
+        <v>13</v>
       </c>
       <c r="G75" t="s">
         <v>13</v>
@@ -2020,29 +1957,70 @@
         <v>13</v>
       </c>
     </row>
+    <row r="76" spans="1:8">
+      <c r="B76" t="s">
+        <v>157</v>
+      </c>
+      <c r="C76" t="n">
+        <v>3.682</v>
+      </c>
+      <c r="D76" t="s">
+        <v>156</v>
+      </c>
+      <c r="E76" t="s">
+        <v>158</v>
+      </c>
+      <c r="F76" t="s">
+        <v>82</v>
+      </c>
+      <c r="G76" t="s">
+        <v>13</v>
+      </c>
+      <c r="H76" t="s">
+        <v>13</v>
+      </c>
+    </row>
     <row r="77" spans="1:8">
-      <c r="A77" t="s">
-        <v>135</v>
+      <c r="B77" t="s">
+        <v>159</v>
+      </c>
+      <c r="C77" t="n">
+        <v>3.6515</v>
+      </c>
+      <c r="D77" t="s">
+        <v>160</v>
+      </c>
+      <c r="E77" t="s">
+        <v>138</v>
+      </c>
+      <c r="F77" t="s">
+        <v>161</v>
+      </c>
+      <c r="G77" t="s">
+        <v>13</v>
+      </c>
+      <c r="H77" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="78" spans="1:8">
       <c r="B78" t="s">
-        <v>136</v>
+        <v>162</v>
       </c>
       <c r="C78" t="n">
-        <v>3.682</v>
+        <v>3.579</v>
       </c>
       <c r="D78" t="s">
-        <v>137</v>
+        <v>163</v>
       </c>
       <c r="E78" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="F78" t="s">
-        <v>139</v>
+        <v>164</v>
       </c>
       <c r="G78" t="s">
-        <v>13</v>
+        <v>150</v>
       </c>
       <c r="H78" t="s">
         <v>13</v>
@@ -2050,22 +2028,22 @@
     </row>
     <row r="79" spans="1:8">
       <c r="B79" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="C79" t="n">
-        <v>3.6515</v>
+        <v>3.7815</v>
       </c>
       <c r="D79" t="s">
-        <v>141</v>
+        <v>166</v>
       </c>
       <c r="E79" t="s">
-        <v>142</v>
+        <v>167</v>
       </c>
       <c r="F79" t="s">
-        <v>143</v>
+        <v>13</v>
       </c>
       <c r="G79" t="s">
-        <v>13</v>
+        <v>168</v>
       </c>
       <c r="H79" t="s">
         <v>13</v>
@@ -2073,22 +2051,22 @@
     </row>
     <row r="80" spans="1:8">
       <c r="B80" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="C80" t="n">
-        <v>3.7815</v>
+        <v>4</v>
       </c>
       <c r="D80" t="s">
-        <v>145</v>
+        <v>23</v>
       </c>
       <c r="E80" t="s">
-        <v>146</v>
+        <v>13</v>
       </c>
       <c r="F80" t="s">
         <v>13</v>
       </c>
       <c r="G80" t="s">
-        <v>94</v>
+        <v>13</v>
       </c>
       <c r="H80" t="s">
         <v>13</v>
@@ -2096,16 +2074,16 @@
     </row>
     <row r="81" spans="1:8">
       <c r="B81" t="s">
-        <v>121</v>
+        <v>169</v>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>3.867</v>
       </c>
       <c r="D81" t="s">
-        <v>22</v>
+        <v>112</v>
       </c>
       <c r="E81" t="s">
-        <v>13</v>
+        <v>170</v>
       </c>
       <c r="F81" t="s">
         <v>13</v>
@@ -2119,19 +2097,19 @@
     </row>
     <row r="82" spans="1:8">
       <c r="B82" t="s">
-        <v>147</v>
+        <v>171</v>
       </c>
       <c r="C82" t="n">
         <v>3.6185</v>
       </c>
       <c r="D82" t="s">
-        <v>148</v>
+        <v>172</v>
       </c>
       <c r="E82" t="s">
-        <v>149</v>
+        <v>173</v>
       </c>
       <c r="F82" t="s">
-        <v>150</v>
+        <v>174</v>
       </c>
       <c r="G82" t="s">
         <v>13</v>
@@ -2142,22 +2120,22 @@
     </row>
     <row r="83" spans="1:8">
       <c r="B83" t="s">
-        <v>151</v>
+        <v>175</v>
       </c>
       <c r="C83" t="n">
-        <v>3.867</v>
+        <v>3.364</v>
       </c>
       <c r="D83" t="s">
-        <v>152</v>
+        <v>81</v>
       </c>
       <c r="E83" t="s">
-        <v>153</v>
+        <v>61</v>
       </c>
       <c r="F83" t="s">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="G83" t="s">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="H83" t="s">
         <v>13</v>
@@ -2165,39 +2143,39 @@
     </row>
     <row r="84" spans="1:8">
       <c r="B84" t="s">
-        <v>154</v>
+        <v>176</v>
       </c>
       <c r="C84" t="n">
-        <v>3.364</v>
+        <v>3.7825</v>
       </c>
       <c r="D84" t="s">
-        <v>155</v>
+        <v>177</v>
       </c>
       <c r="E84" t="s">
-        <v>67</v>
+        <v>178</v>
       </c>
       <c r="F84" t="s">
-        <v>139</v>
+        <v>13</v>
       </c>
       <c r="G84" t="s">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="H84" t="s">
-        <v>13</v>
+        <v>178</v>
       </c>
     </row>
     <row r="85" spans="1:8">
       <c r="B85" t="s">
-        <v>156</v>
+        <v>179</v>
       </c>
       <c r="C85" t="n">
-        <v>3.7825</v>
+        <v>3.875</v>
       </c>
       <c r="D85" t="s">
-        <v>157</v>
+        <v>180</v>
       </c>
       <c r="E85" t="s">
-        <v>158</v>
+        <v>181</v>
       </c>
       <c r="F85" t="s">
         <v>13</v>
@@ -2206,75 +2184,75 @@
         <v>13</v>
       </c>
       <c r="H85" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
-      <c r="B86" t="s">
-        <v>159</v>
-      </c>
-      <c r="C86" t="n">
-        <v>3.727</v>
-      </c>
-      <c r="D86" t="s">
-        <v>137</v>
-      </c>
-      <c r="E86" t="s">
-        <v>67</v>
-      </c>
-      <c r="F86" t="s">
-        <v>13</v>
-      </c>
-      <c r="G86" t="s">
-        <v>13</v>
-      </c>
-      <c r="H86" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="87" spans="1:8">
-      <c r="B87" t="s">
-        <v>160</v>
-      </c>
-      <c r="C87" t="n">
-        <v>3.875</v>
-      </c>
-      <c r="D87" t="s">
-        <v>161</v>
-      </c>
-      <c r="E87" t="s">
-        <v>162</v>
-      </c>
-      <c r="F87" t="s">
-        <v>13</v>
-      </c>
-      <c r="G87" t="s">
-        <v>13</v>
-      </c>
-      <c r="H87" t="s">
+      <c r="A87" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
+      <c r="B88" t="s">
+        <v>183</v>
+      </c>
+      <c r="C88" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="D88" t="s">
+        <v>184</v>
+      </c>
+      <c r="E88" t="s">
+        <v>185</v>
+      </c>
+      <c r="F88" t="s">
+        <v>186</v>
+      </c>
+      <c r="G88" t="s">
+        <v>13</v>
+      </c>
+      <c r="H88" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="89" spans="1:8">
-      <c r="A89" t="s">
-        <v>163</v>
+      <c r="B89" t="s">
+        <v>187</v>
+      </c>
+      <c r="C89" t="n">
+        <v>3.556</v>
+      </c>
+      <c r="D89" t="s">
+        <v>188</v>
+      </c>
+      <c r="E89" t="s">
+        <v>57</v>
+      </c>
+      <c r="F89" t="s">
+        <v>13</v>
+      </c>
+      <c r="G89" t="s">
+        <v>13</v>
+      </c>
+      <c r="H89" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="90" spans="1:8">
       <c r="B90" t="s">
+        <v>136</v>
+      </c>
+      <c r="C90" t="n">
+        <v>3.8915</v>
+      </c>
+      <c r="D90" t="s">
+        <v>189</v>
+      </c>
+      <c r="E90" t="s">
         <v>164</v>
       </c>
-      <c r="C90" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="D90" t="s">
-        <v>165</v>
-      </c>
-      <c r="E90" t="s">
-        <v>166</v>
-      </c>
       <c r="F90" t="s">
-        <v>167</v>
+        <v>13</v>
       </c>
       <c r="G90" t="s">
         <v>13</v>
@@ -2285,19 +2263,19 @@
     </row>
     <row r="91" spans="1:8">
       <c r="B91" t="s">
-        <v>168</v>
+        <v>190</v>
       </c>
       <c r="C91" t="n">
         <v>3.25</v>
       </c>
       <c r="D91" t="s">
-        <v>169</v>
+        <v>191</v>
       </c>
       <c r="E91" t="s">
-        <v>169</v>
+        <v>191</v>
       </c>
       <c r="F91" t="s">
-        <v>170</v>
+        <v>192</v>
       </c>
       <c r="G91" t="s">
         <v>13</v>
@@ -2308,22 +2286,22 @@
     </row>
     <row r="92" spans="1:8">
       <c r="B92" t="s">
-        <v>171</v>
+        <v>193</v>
       </c>
       <c r="C92" t="n">
-        <v>3.556</v>
+        <v>3.375</v>
       </c>
       <c r="D92" t="s">
-        <v>172</v>
+        <v>194</v>
       </c>
       <c r="E92" t="s">
-        <v>58</v>
+        <v>195</v>
       </c>
       <c r="F92" t="s">
         <v>13</v>
       </c>
       <c r="G92" t="s">
-        <v>13</v>
+        <v>181</v>
       </c>
       <c r="H92" t="s">
         <v>13</v>
@@ -2331,16 +2309,16 @@
     </row>
     <row r="93" spans="1:8">
       <c r="B93" t="s">
-        <v>121</v>
+        <v>196</v>
       </c>
       <c r="C93" t="n">
-        <v>3.833</v>
+        <v>3.76</v>
       </c>
       <c r="D93" t="s">
-        <v>122</v>
+        <v>184</v>
       </c>
       <c r="E93" t="s">
-        <v>170</v>
+        <v>197</v>
       </c>
       <c r="F93" t="s">
         <v>13</v>
@@ -2349,219 +2327,81 @@
         <v>13</v>
       </c>
       <c r="H93" t="s">
-        <v>13</v>
+        <v>198</v>
       </c>
     </row>
     <row r="94" spans="1:8">
       <c r="B94" t="s">
-        <v>173</v>
+        <v>199</v>
       </c>
       <c r="C94" t="n">
-        <v>3.375</v>
+        <v>3.679</v>
       </c>
       <c r="D94" t="s">
-        <v>174</v>
+        <v>200</v>
       </c>
       <c r="E94" t="s">
-        <v>175</v>
+        <v>201</v>
       </c>
       <c r="F94" t="s">
-        <v>13</v>
+        <v>202</v>
       </c>
       <c r="G94" t="s">
-        <v>162</v>
+        <v>13</v>
       </c>
       <c r="H94" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
-      <c r="B95" t="s">
-        <v>176</v>
-      </c>
-      <c r="C95" t="n">
-        <v>3.625</v>
-      </c>
-      <c r="D95" t="s">
-        <v>177</v>
-      </c>
-      <c r="E95" t="s">
-        <v>162</v>
-      </c>
-      <c r="F95" t="s">
-        <v>13</v>
-      </c>
-      <c r="G95" t="s">
-        <v>13</v>
-      </c>
-      <c r="H95" t="s">
-        <v>178</v>
+        <v>202</v>
       </c>
     </row>
     <row r="96" spans="1:8">
-      <c r="B96" t="s">
-        <v>179</v>
-      </c>
-      <c r="C96" t="n">
-        <v>3.679</v>
-      </c>
-      <c r="D96" t="s">
-        <v>180</v>
-      </c>
-      <c r="E96" t="s">
-        <v>181</v>
-      </c>
-      <c r="F96" t="s">
-        <v>182</v>
-      </c>
-      <c r="G96" t="s">
-        <v>13</v>
-      </c>
-      <c r="H96" t="s">
-        <v>182</v>
+      <c r="A96" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
+      <c r="B97" t="s">
+        <v>136</v>
+      </c>
+      <c r="C97" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="D97" t="s">
+        <v>204</v>
+      </c>
+      <c r="E97" t="s">
+        <v>13</v>
+      </c>
+      <c r="F97" t="s">
+        <v>13</v>
+      </c>
+      <c r="G97" t="s">
+        <v>13</v>
+      </c>
+      <c r="H97" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="98" spans="1:8">
-      <c r="A98" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
-      <c r="B99" t="s">
-        <v>121</v>
-      </c>
-      <c r="C99" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="D99" t="s">
-        <v>184</v>
-      </c>
-      <c r="E99" t="s">
-        <v>13</v>
-      </c>
-      <c r="F99" t="s">
-        <v>13</v>
-      </c>
-      <c r="G99" t="s">
-        <v>13</v>
-      </c>
-      <c r="H99" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
-      <c r="B100" t="s">
-        <v>25</v>
-      </c>
-      <c r="C100" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="D100" t="s">
-        <v>184</v>
-      </c>
-      <c r="E100" t="s">
-        <v>13</v>
-      </c>
-      <c r="F100" t="s">
-        <v>13</v>
-      </c>
-      <c r="G100" t="s">
-        <v>13</v>
-      </c>
-      <c r="H100" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
-      <c r="B101" t="s">
-        <v>24</v>
-      </c>
-      <c r="C101" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="D101" t="s">
-        <v>184</v>
-      </c>
-      <c r="E101" t="s">
-        <v>13</v>
-      </c>
-      <c r="F101" t="s">
-        <v>13</v>
-      </c>
-      <c r="G101" t="s">
-        <v>13</v>
-      </c>
-      <c r="H101" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
-      <c r="B102" t="s">
-        <v>54</v>
-      </c>
-      <c r="C102" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="D102" t="s">
-        <v>184</v>
-      </c>
-      <c r="E102" t="s">
-        <v>13</v>
-      </c>
-      <c r="F102" t="s">
-        <v>13</v>
-      </c>
-      <c r="G102" t="s">
-        <v>13</v>
-      </c>
-      <c r="H102" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
-      <c r="B103" t="s">
-        <v>186</v>
-      </c>
-      <c r="C103" t="n">
-        <v>3.6785</v>
-      </c>
-      <c r="D103" t="s">
-        <v>187</v>
-      </c>
-      <c r="E103" t="s">
-        <v>13</v>
-      </c>
-      <c r="F103" t="s">
-        <v>13</v>
-      </c>
-      <c r="G103" t="s">
-        <v>188</v>
-      </c>
-      <c r="H103" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
-      <c r="B104" t="s">
-        <v>26</v>
-      </c>
-      <c r="C104" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="D104" t="s">
-        <v>184</v>
-      </c>
-      <c r="E104" t="s">
-        <v>13</v>
-      </c>
-      <c r="F104" t="s">
-        <v>13</v>
-      </c>
-      <c r="G104" t="s">
-        <v>13</v>
-      </c>
-      <c r="H104" t="s">
-        <v>185</v>
+      <c r="B98" t="s">
+        <v>206</v>
+      </c>
+      <c r="C98" t="n">
+        <v>3.8392</v>
+      </c>
+      <c r="D98" t="s">
+        <v>207</v>
+      </c>
+      <c r="E98" t="s">
+        <v>13</v>
+      </c>
+      <c r="F98" t="s">
+        <v>13</v>
+      </c>
+      <c r="G98" t="s">
+        <v>208</v>
+      </c>
+      <c r="H98" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/GradeDistributionsDB/Spring2015/Output/Spring2015 MS.xlsx
+++ b/GradeDistributionsDB/Spring2015/Output/Spring2015 MS.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<s:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <s:workbookPr/>
-  <s:bookViews>
-    <s:workbookView activeTab="0"/>
-  </s:bookViews>
-  <s:sheets>
-    <s:sheet name="Sheet" sheetId="1" r:id="rId1"/>
-  </s:sheets>
-  <s:definedNames/>
-  <s:calcPr calcId="124519" fullCalcOnLoad="1"/>
-</s:workbook>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <bookViews>
+    <workbookView activeTab="0"/>
+  </bookViews>
+  <sheets>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+  </sheets>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+</workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="222">
   <si>
     <t>Course</t>
   </si>
@@ -40,6 +40,9 @@
     <t>% of F's</t>
   </si>
   <si>
+    <t>% of Q Drop's</t>
+  </si>
+  <si>
     <t>AERS-102</t>
   </si>
   <si>
@@ -79,6 +82,9 @@
     <t>1.23%</t>
   </si>
   <si>
+    <t>1.22%</t>
+  </si>
+  <si>
     <t>AERS-304</t>
   </si>
   <si>
@@ -115,6 +121,9 @@
     <t>0.88%</t>
   </si>
   <si>
+    <t>0.87%</t>
+  </si>
+  <si>
     <t>MLSC-222</t>
   </si>
   <si>
@@ -127,6 +136,9 @@
     <t>0.82%</t>
   </si>
   <si>
+    <t>2.40%</t>
+  </si>
+  <si>
     <t>MLSC-322</t>
   </si>
   <si>
@@ -166,6 +178,9 @@
     <t>2.02%</t>
   </si>
   <si>
+    <t>1.98%</t>
+  </si>
+  <si>
     <t>MLSC-485</t>
   </si>
   <si>
@@ -178,6 +193,9 @@
     <t>4.17%</t>
   </si>
   <si>
+    <t>4.00%</t>
+  </si>
+  <si>
     <t>NVSC-205</t>
   </si>
   <si>
@@ -220,6 +238,9 @@
     <t>4.65%</t>
   </si>
   <si>
+    <t>1.15%</t>
+  </si>
+  <si>
     <t>MURTY J</t>
   </si>
   <si>
@@ -232,6 +253,9 @@
     <t>6.10%</t>
   </si>
   <si>
+    <t>1.20%</t>
+  </si>
+  <si>
     <t>NVSC-301</t>
   </si>
   <si>
@@ -313,6 +337,9 @@
     <t>35.00%</t>
   </si>
   <si>
+    <t>4.76%</t>
+  </si>
+  <si>
     <t>SOMS-111</t>
   </si>
   <si>
@@ -469,6 +496,9 @@
     <t>5.26%</t>
   </si>
   <si>
+    <t>1.04%</t>
+  </si>
+  <si>
     <t>SOMS-381</t>
   </si>
   <si>
@@ -481,6 +511,9 @@
     <t>45.45%</t>
   </si>
   <si>
+    <t>15.38%</t>
+  </si>
+  <si>
     <t>PRESTON T</t>
   </si>
   <si>
@@ -574,9 +607,6 @@
     <t>9.52%</t>
   </si>
   <si>
-    <t>4.76%</t>
-  </si>
-  <si>
     <t>STRUMINGER R</t>
   </si>
   <si>
@@ -586,6 +616,9 @@
     <t>89.47%</t>
   </si>
   <si>
+    <t>2.56%</t>
+  </si>
+  <si>
     <t>RANDOLPH D</t>
   </si>
   <si>
@@ -625,6 +658,9 @@
     <t>1.96%</t>
   </si>
   <si>
+    <t>1.92%</t>
+  </si>
+  <si>
     <t>SOMS-485</t>
   </si>
   <si>
@@ -641,6 +677,9 @@
   </si>
   <si>
     <t>3.37%</t>
+  </si>
+  <si>
+    <t>1.11%</t>
   </si>
 </sst>
 </file>
@@ -678,12 +717,11 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
@@ -977,15 +1015,15 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H98"/>
+  <dimension ref="A1:I98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1010,1398 +1048,1569 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="B3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" t="n">
         <v>3.6197</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="B6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C6" t="n">
         <v>3.742</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="B9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C9" t="n">
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="B12" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C12" t="n">
         <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="B15" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C15" t="n">
         <v>3.6882</v>
       </c>
       <c r="D15" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E15" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F15" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G15" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H15" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>34</v>
+      </c>
+      <c r="I15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="B18" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C18" t="n">
         <v>3.961</v>
       </c>
       <c r="D18" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E18" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H18" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>39</v>
+      </c>
+      <c r="I18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="B21" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C21" t="n">
         <v>3.2268</v>
       </c>
       <c r="D21" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E21" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G21" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="H21" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="B24" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C24" t="n">
         <v>3.6013</v>
       </c>
       <c r="D24" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="E24" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F24" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G24" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H24" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>53</v>
+      </c>
+      <c r="I24" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="B27" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C27" t="n">
         <v>3.958</v>
       </c>
       <c r="D27" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E27" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="F27" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G27" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H27" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I27" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="B30" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C30" t="n">
         <v>3.244</v>
       </c>
       <c r="D30" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="E30" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="F30" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="G30" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H30" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I30" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="B31" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C31" t="n">
         <v>3.182</v>
       </c>
       <c r="D31" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="E31" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="F31" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="G31" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H31" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>68</v>
+      </c>
+      <c r="I31" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="B32" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="C32" t="n">
         <v>3.255</v>
       </c>
       <c r="D32" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="E32" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="F32" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G32" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="H32" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I32" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="B33" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="C33" t="n">
         <v>3.5715</v>
       </c>
       <c r="D33" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="E33" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="F33" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="G33" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H33" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I33" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="B36" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="C36" t="n">
         <v>3.667</v>
       </c>
       <c r="D36" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="E36" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="F36" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G36" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H36" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I36" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="B37" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="C37" t="n">
         <v>3.44</v>
       </c>
       <c r="D37" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="E37" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="F37" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G37" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H37" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I37" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="B40" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="C40" t="n">
         <v>3.046</v>
       </c>
       <c r="D40" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="E40" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="F40" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="G40" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="H40" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I40" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="B41" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="C41" t="n">
         <v>3.148</v>
       </c>
       <c r="D41" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="E41" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="F41" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="G41" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H41" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I41" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="B44" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="C44" t="n">
         <v>3.6555</v>
       </c>
       <c r="D44" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="E44" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="F44" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G44" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H44" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I44" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="B47" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="C47" t="n">
         <v>3.5415</v>
       </c>
       <c r="D47" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="E47" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="F47" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G47" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H47" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I47" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="B50" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C50" t="n">
         <v>4</v>
       </c>
       <c r="D50" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E50" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F50" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G50" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H50" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I50" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="B51" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="C51" t="n">
         <v>3.65</v>
       </c>
       <c r="D51" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="E51" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="F51" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G51" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H51" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I51" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="B54" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="C54" t="n">
         <v>3.667</v>
       </c>
       <c r="D54" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="E54" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F54" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G54" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="H54" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I54" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="B57" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="C57" t="n">
         <v>4</v>
       </c>
       <c r="D57" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E57" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F57" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G57" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H57" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I57" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="B58" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="C58" t="n">
         <v>3.9335</v>
       </c>
       <c r="D58" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="E58" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="F58" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="G58" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H58" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I58" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="B59" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="C59" t="n">
         <v>3.938</v>
       </c>
       <c r="D59" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="E59" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="F59" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G59" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H59" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I59" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="B60" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="C60" t="n">
         <v>3.799</v>
       </c>
       <c r="D60" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="E60" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="F60" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G60" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="H60" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I60" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="B61" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="C61" t="n">
         <v>3.4237</v>
       </c>
       <c r="D61" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="E61" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="F61" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="G61" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="H61" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>128</v>
+      </c>
+      <c r="I61" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="B62" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="C62" t="n">
         <v>4</v>
       </c>
       <c r="D62" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E62" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F62" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G62" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H62" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I62" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="B63" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="C63" t="n">
         <v>3.862</v>
       </c>
       <c r="D63" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="E63" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F63" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G63" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H63" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>132</v>
+      </c>
+      <c r="I63" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="B64" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="C64" t="n">
         <v>3.8996</v>
       </c>
       <c r="D64" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="E64" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="F64" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="G64" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H64" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>137</v>
+      </c>
+      <c r="I64" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="B67" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="C67" t="n">
         <v>3.499</v>
       </c>
       <c r="D67" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="E67" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="F67" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="G67" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="H67" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>144</v>
+      </c>
+      <c r="I67" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="B68" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="C68" t="n">
         <v>3.8285</v>
       </c>
       <c r="D68" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="E68" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="F68" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="G68" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H68" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I68" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="B69" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="C69" t="n">
         <v>3.5046</v>
       </c>
       <c r="D69" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="E69" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="F69" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="G69" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="H69" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>154</v>
+      </c>
+      <c r="I69" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="B70" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="C70" t="n">
         <v>4</v>
       </c>
       <c r="D70" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E70" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F70" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G70" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H70" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I70" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="B71" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="C71" t="n">
         <v>3.7873</v>
       </c>
       <c r="D71" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="E71" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="F71" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="G71" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H71" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I71" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="B74" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="C74" t="n">
         <v>3</v>
       </c>
       <c r="D74" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="E74" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="F74" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="G74" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H74" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>68</v>
+      </c>
+      <c r="I74" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="B75" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="C75" t="n">
         <v>3.727</v>
       </c>
       <c r="D75" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="E75" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="F75" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G75" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H75" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I75" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="B76" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="C76" t="n">
         <v>3.682</v>
       </c>
       <c r="D76" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="E76" t="s">
-        <v>158</v>
+        <v>169</v>
       </c>
       <c r="F76" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="G76" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H76" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I76" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="B77" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="C77" t="n">
         <v>3.6515</v>
       </c>
       <c r="D77" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="E77" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="F77" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="G77" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H77" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I77" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="B78" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
       <c r="C78" t="n">
         <v>3.579</v>
       </c>
       <c r="D78" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="E78" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="F78" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="G78" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="H78" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I78" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="B79" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="C79" t="n">
         <v>3.7815</v>
       </c>
       <c r="D79" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="E79" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="F79" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G79" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="H79" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I79" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="B80" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="C80" t="n">
         <v>4</v>
       </c>
       <c r="D80" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E80" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F80" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G80" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H80" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I80" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="B81" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="C81" t="n">
         <v>3.867</v>
       </c>
       <c r="D81" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="E81" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
       <c r="F81" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G81" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H81" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I81" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="B82" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="C82" t="n">
         <v>3.6185</v>
       </c>
       <c r="D82" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="E82" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="F82" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="G82" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H82" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I82" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="B83" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="C83" t="n">
         <v>3.364</v>
       </c>
       <c r="D83" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="E83" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="F83" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="G83" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="H83" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I83" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="B84" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="C84" t="n">
         <v>3.7825</v>
       </c>
       <c r="D84" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="E84" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="F84" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G84" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H84" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>189</v>
+      </c>
+      <c r="I84" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="B85" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="C85" t="n">
         <v>3.875</v>
       </c>
       <c r="D85" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="E85" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="F85" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G85" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H85" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I85" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="B88" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="C88" t="n">
         <v>3.8</v>
       </c>
       <c r="D88" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="E88" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="F88" t="s">
-        <v>186</v>
+        <v>107</v>
       </c>
       <c r="G88" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H88" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I88" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="B89" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="C89" t="n">
         <v>3.556</v>
       </c>
       <c r="D89" t="s">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="E89" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="F89" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G89" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H89" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I89" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="B90" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="C90" t="n">
         <v>3.8915</v>
       </c>
       <c r="D90" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="E90" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="F90" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G90" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H90" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I90" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="B91" t="s">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="C91" t="n">
         <v>3.25</v>
       </c>
       <c r="D91" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="E91" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="F91" t="s">
-        <v>192</v>
+        <v>203</v>
       </c>
       <c r="G91" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H91" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I91" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="B92" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="C92" t="n">
         <v>3.375</v>
       </c>
       <c r="D92" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="E92" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="F92" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G92" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="H92" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I92" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="B93" t="s">
-        <v>196</v>
+        <v>207</v>
       </c>
       <c r="C93" t="n">
         <v>3.76</v>
       </c>
       <c r="D93" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="E93" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="F93" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G93" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H93" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>209</v>
+      </c>
+      <c r="I93" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="B94" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="C94" t="n">
         <v>3.679</v>
       </c>
       <c r="D94" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="E94" t="s">
-        <v>201</v>
+        <v>212</v>
       </c>
       <c r="F94" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="G94" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H94" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>213</v>
+      </c>
+      <c r="I94" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="B97" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="C97" t="n">
         <v>3.2</v>
       </c>
       <c r="D97" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="E97" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F97" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G97" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H97" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>217</v>
+      </c>
+      <c r="I97" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="B98" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="C98" t="n">
         <v>3.8392</v>
       </c>
       <c r="D98" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="E98" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F98" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G98" t="s">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="H98" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="I98" t="s">
+        <v>221</v>
       </c>
     </row>
   </sheetData>
